--- a/compare-sheets/old.xlsx
+++ b/compare-sheets/old.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fiscal\Documents\GitHub\CompareSheets\compare-sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC5DEA7-BA04-4205-81E4-2093A69CB6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +374,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>5555</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compare-sheets/old.xlsx
+++ b/compare-sheets/old.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fiscal\Documents\GitHub\CompareSheets\compare-sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programação\CompareSheets\compare-sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC5DEA7-BA04-4205-81E4-2093A69CB6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54EDE4D-BC25-4176-BD4A-E3B22C12411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="1200" windowWidth="15300" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>Codigo</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,18 +394,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>6666</v>
@@ -413,13 +413,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2222</v>
@@ -427,13 +427,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>3333</v>
@@ -441,13 +441,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4444</v>
@@ -455,13 +455,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>5555</v>
